--- a/pac1/BookMyShowDatabase.xlsx
+++ b/pac1/BookMyShowDatabase.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="A2:E27"/>
@@ -535,6 +535,30 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>user45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>op88rr</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pragti</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gupta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -546,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -609,41 +633,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>RRF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R,R,R</t>
+          <t>UIH</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAJA</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>HIN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TELEGU</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -690,6 +716,53 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -704,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -729,6 +802,11 @@
           <t>Batman</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -762,6 +840,20 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>abc4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>user45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pragti</t>
         </is>
       </c>
     </row>
@@ -776,7 +868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -801,6 +893,11 @@
           <t>Batman</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -823,6 +920,20 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>abc4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>user45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pragti</t>
         </is>
       </c>
     </row>
